--- a/data.xlsx
+++ b/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8385"/>
+    <workbookView windowWidth="28515" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>Batch_size</t>
   </si>
@@ -43,8 +44,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -58,15 +59,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,7 +77,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,7 +122,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +159,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -106,68 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -176,28 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,10 +205,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,7 +229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,13 +277,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,37 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,17 +423,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,7 +447,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,26 +478,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +496,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,137 +540,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +684,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F100" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -1021,193 +1025,2586 @@
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="11.5"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="12.625"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="18" max="19" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" spans="1:9">
+    <row r="2" ht="12" customHeight="1" spans="1:19">
       <c r="A2">
         <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>0.33</v>
       </c>
+      <c r="C2">
+        <v>483</v>
+      </c>
       <c r="D2">
-        <v>483</v>
+        <v>183500</v>
+      </c>
+      <c r="E2">
+        <v>183350</v>
       </c>
       <c r="F2">
-        <v>183500</v>
+        <v>5571.27682</v>
       </c>
       <c r="G2">
-        <v>183350</v>
-      </c>
-      <c r="H2">
-        <v>5571.27682</v>
-      </c>
-      <c r="I2">
         <v>5592.35432</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="2">
+        <v>68280</v>
+      </c>
+      <c r="I2" s="2">
+        <v>68279</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3241.46783</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3221.77308</v>
+      </c>
+      <c r="L2" s="2">
+        <v>93421</v>
+      </c>
+      <c r="M2" s="2">
+        <v>93420</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1722.16232</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1740.89018</v>
+      </c>
+      <c r="P2" s="2">
+        <v>98473</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>98474</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1827.18781</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1815.48781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>0.53</v>
       </c>
+      <c r="C3">
+        <v>617</v>
+      </c>
       <c r="D3">
-        <v>617</v>
+        <v>113500</v>
+      </c>
+      <c r="E3">
+        <v>113450</v>
       </c>
       <c r="F3">
-        <v>113500</v>
+        <v>3165.19924950599</v>
       </c>
       <c r="G3">
-        <v>113450</v>
-      </c>
-      <c r="H3">
-        <v>3165.19924950599</v>
-      </c>
-      <c r="I3">
         <v>3174.50338</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>0.67</v>
       </c>
-      <c r="D4">
-        <v>901</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4">
+        <v>643</v>
+      </c>
+      <c r="D4" s="3">
         <v>67438</v>
       </c>
-      <c r="G4" s="2">
+      <c r="E4" s="3">
         <v>67439</v>
       </c>
-      <c r="H4" s="2">
+      <c r="F4" s="3">
         <v>2803.42539</v>
       </c>
-      <c r="I4" s="2">
+      <c r="G4" s="3">
         <v>2785.26305</v>
       </c>
-      <c r="J4" s="4">
-        <v>68280</v>
-      </c>
-      <c r="K4" s="4">
-        <v>68279</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3241.46783</v>
-      </c>
-      <c r="M4">
-        <v>3221.77308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C5">
+        <v>645</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C6">
+        <v>605</v>
+      </c>
+      <c r="D6" s="2">
+        <v>71137</v>
+      </c>
+      <c r="E6" s="2">
+        <v>71136</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1887.93429</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1907.50811</v>
+      </c>
+      <c r="H6" s="2">
+        <v>76605</v>
+      </c>
+      <c r="I6" s="2">
+        <v>76606</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2084.75727</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2075.76364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>868</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
         <v>128</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C8">
+        <v>931</v>
+      </c>
+      <c r="D8" s="3">
+        <v>38552</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38551</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2623.00095</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2602.68503</v>
+      </c>
+      <c r="H8" s="2">
+        <v>57408</v>
+      </c>
+      <c r="I8" s="2">
+        <v>57409</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2068.62001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="L8" s="2">
+        <v>53958</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53957</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1806.06347</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1827.01256</v>
+      </c>
+      <c r="P8" s="2">
+        <v>55759</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>55760</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1865.00821</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1856.35916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>144</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C9">
+        <v>940</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>160</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C10">
+        <v>939</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>176</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C11">
+        <v>945</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C12">
+        <v>875</v>
+      </c>
+      <c r="D12" s="2">
+        <v>49270</v>
+      </c>
+      <c r="E12" s="2">
+        <v>49271</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2032.30773</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2053.28135</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C13">
+        <v>876</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>224</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C14">
+        <v>1385</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38416</v>
+      </c>
+      <c r="E14" s="2">
+        <v>38417</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1940.67552</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1961.36271</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>240</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C15">
+        <v>1393</v>
+      </c>
+      <c r="D15" s="2">
+        <v>56879</v>
+      </c>
+      <c r="E15" s="2">
+        <v>56878</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3062.53418</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3084.00839</v>
+      </c>
+      <c r="H15">
+        <v>512</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J15">
+        <v>2685</v>
+      </c>
+      <c r="K15" s="2">
+        <v>82061</v>
+      </c>
+      <c r="L15" s="2">
+        <v>82060</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8667.25831</v>
+      </c>
+      <c r="N15" s="2">
+        <v>8657.48606</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>256</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C16">
+        <v>1521</v>
+      </c>
+      <c r="D16" s="2">
+        <v>67178</v>
+      </c>
+      <c r="E16" s="2">
+        <v>67177</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4030.90951</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4050.96712</v>
+      </c>
+      <c r="H16">
+        <v>1024</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J16">
+        <v>4981</v>
+      </c>
+      <c r="K16" s="2">
+        <v>69153</v>
+      </c>
+      <c r="L16" s="2">
+        <v>69154</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13578.19541</v>
+      </c>
+      <c r="N16" s="2">
+        <v>13599.30951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C19">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C21">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C22">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.58</v>
+      </c>
+      <c r="C24">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C26">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C27">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C28">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C30">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C31">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C32">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C33">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C34">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C36">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C37">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C38">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="C39">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>96</v>
+      </c>
+      <c r="C40">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C44">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>116</v>
+      </c>
+      <c r="C45">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>124</v>
+      </c>
+      <c r="C47">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="C48">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>136</v>
+      </c>
+      <c r="C50">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>140</v>
+      </c>
+      <c r="C51">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>144</v>
+      </c>
+      <c r="C52">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>148</v>
+      </c>
+      <c r="C53">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C54">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>156</v>
+      </c>
+      <c r="C55">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>164</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C57">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>168</v>
+      </c>
+      <c r="C58">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>172</v>
+      </c>
+      <c r="C59">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>176</v>
+      </c>
+      <c r="C60">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>180</v>
+      </c>
+      <c r="C61">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C62">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>188</v>
+      </c>
+      <c r="C63">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>192</v>
+      </c>
+      <c r="C64">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>196</v>
+      </c>
+      <c r="C65">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>200</v>
+      </c>
+      <c r="C66">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>204</v>
+      </c>
+      <c r="C67">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>208</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C68">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>212</v>
+      </c>
+      <c r="C69">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>216</v>
+      </c>
+      <c r="C70">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>220</v>
+      </c>
+      <c r="C71">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>224</v>
+      </c>
+      <c r="C72">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>228</v>
+      </c>
+      <c r="C73">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>232</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C74">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>236</v>
+      </c>
+      <c r="C75">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>240</v>
+      </c>
+      <c r="C76">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>244</v>
+      </c>
+      <c r="C77">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>248</v>
+      </c>
+      <c r="C78">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>252</v>
+      </c>
+      <c r="C79">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>256</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C80">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>260</v>
+      </c>
+      <c r="C81">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>264</v>
+      </c>
+      <c r="C82">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>268</v>
+      </c>
+      <c r="C83">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>272</v>
+      </c>
+      <c r="C84">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>276</v>
+      </c>
+      <c r="C85">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>280</v>
+      </c>
+      <c r="C86">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>284</v>
+      </c>
+      <c r="C87">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>288</v>
+      </c>
+      <c r="C88">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>292</v>
+      </c>
+      <c r="C89">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>296</v>
+      </c>
+      <c r="C90">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>300</v>
+      </c>
+      <c r="C91">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>304</v>
+      </c>
+      <c r="C92">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>308</v>
+      </c>
+      <c r="C93">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>312</v>
+      </c>
+      <c r="C94">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>316</v>
+      </c>
+      <c r="C95">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>320</v>
+      </c>
+      <c r="C96">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>324</v>
+      </c>
+      <c r="C97">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>328</v>
+      </c>
+      <c r="C98">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>332</v>
+      </c>
+      <c r="C99">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>336</v>
+      </c>
+      <c r="C100">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>340</v>
+      </c>
+      <c r="C101">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>344</v>
+      </c>
+      <c r="C102">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>348</v>
+      </c>
+      <c r="C103">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>352</v>
+      </c>
+      <c r="C104">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>356</v>
+      </c>
+      <c r="C105">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>360</v>
+      </c>
+      <c r="C106">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>364</v>
+      </c>
+      <c r="C107">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>368</v>
+      </c>
+      <c r="C108">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>372</v>
+      </c>
+      <c r="C109">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>376</v>
+      </c>
+      <c r="C110">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>380</v>
+      </c>
+      <c r="C111">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>384</v>
+      </c>
+      <c r="C112">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>388</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C113">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="11.5"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="12.625"/>
+    <col min="15" max="15" width="11.5"/>
+    <col min="18" max="19" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C4">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:3">
+      <c r="A5">
+        <v>16</v>
+      </c>
       <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C6">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.58</v>
+      </c>
+      <c r="C9">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C11">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
+      <c r="A12">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C12">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C13">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
+      <c r="A15">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C15">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C16">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C17">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:3">
+      <c r="A18">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C18">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:3">
+      <c r="A19">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C19">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.82</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5">
-        <v>1445</v>
-      </c>
-      <c r="F5" s="2">
-        <v>38552</v>
-      </c>
-      <c r="G5" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2623.00095</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2602.68503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="C21">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:3">
+      <c r="A22">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C22">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:3">
+      <c r="A23">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C23">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:3">
+      <c r="A24">
+        <v>92</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:3">
+      <c r="A25">
+        <v>96</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:3">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:3">
+      <c r="A27">
+        <v>104</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:3">
+      <c r="A28">
+        <v>108</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:3">
+      <c r="A29">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C29">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:3">
+      <c r="A30">
+        <v>116</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:3">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:3">
+      <c r="A32">
+        <v>124</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:3">
+      <c r="A33">
+        <v>128</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:3">
+      <c r="A34">
+        <v>132</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:3">
+      <c r="A35">
+        <v>136</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:3">
+      <c r="A36">
+        <v>140</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:3">
+      <c r="A37">
+        <v>144</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
+      <c r="A38">
+        <v>148</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:3">
+      <c r="A39">
+        <v>152</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C39">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:3">
+      <c r="A40">
+        <v>156</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:3">
+      <c r="A41">
+        <v>160</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:3">
+      <c r="A42">
+        <v>164</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C42">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:3">
+      <c r="A43">
+        <v>168</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:3">
+      <c r="A44">
+        <v>172</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:3">
+      <c r="A45">
+        <v>176</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:3">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:3">
+      <c r="A47">
+        <v>184</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C47">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:3">
+      <c r="A48">
+        <v>188</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:3">
+      <c r="A49">
+        <v>192</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:3">
+      <c r="A50">
+        <v>196</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:3">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:3">
+      <c r="A52">
+        <v>204</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:3">
+      <c r="A53">
+        <v>208</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C53">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:3">
+      <c r="A54">
+        <v>212</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:3">
+      <c r="A55">
+        <v>216</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:3">
+      <c r="A56">
+        <v>220</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:3">
+      <c r="A57">
+        <v>224</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:3">
+      <c r="A58">
+        <v>228</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:3">
+      <c r="A59">
+        <v>232</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C59">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:3">
+      <c r="A60">
+        <v>236</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:3">
+      <c r="A61">
+        <v>240</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:3">
+      <c r="A62">
+        <v>244</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:3">
+      <c r="A63">
+        <v>248</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:3">
+      <c r="A64">
+        <v>252</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:3">
+      <c r="A65">
         <v>256</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="D6">
-        <v>1521</v>
-      </c>
-      <c r="F6" s="3">
-        <v>67178</v>
-      </c>
-      <c r="G6" s="3">
-        <v>67177</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4030.90951</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4050.96712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>512</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="D7">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1024</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B65" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C65">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:3">
+      <c r="A66">
+        <v>260</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:3">
+      <c r="A67">
+        <v>264</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:3">
+      <c r="A68">
+        <v>268</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:3">
+      <c r="A69">
+        <v>272</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:3">
+      <c r="A70">
+        <v>276</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:3">
+      <c r="A71">
+        <v>280</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:3">
+      <c r="A72">
+        <v>284</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:3">
+      <c r="A73">
+        <v>288</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:3">
+      <c r="A74">
+        <v>292</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:3">
+      <c r="A75">
+        <v>296</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:3">
+      <c r="A76">
+        <v>300</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:3">
+      <c r="A77">
+        <v>304</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:3">
+      <c r="A78">
+        <v>308</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:3">
+      <c r="A79">
+        <v>312</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:3">
+      <c r="A80">
+        <v>316</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:3">
+      <c r="A81">
+        <v>320</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:3">
+      <c r="A82">
+        <v>324</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:3">
+      <c r="A83">
+        <v>328</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:3">
+      <c r="A84">
+        <v>332</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:3">
+      <c r="A85">
+        <v>336</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:3">
+      <c r="A86">
+        <v>340</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87">
+        <v>344</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:3">
+      <c r="A88">
+        <v>348</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:3">
+      <c r="A89">
+        <v>352</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:3">
+      <c r="A90">
+        <v>356</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:3">
+      <c r="A91">
+        <v>360</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:3">
+      <c r="A92">
+        <v>364</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:3">
+      <c r="A93">
+        <v>368</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:3">
+      <c r="A94">
+        <v>372</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:3">
+      <c r="A95">
+        <v>376</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:3">
+      <c r="A96">
+        <v>380</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:3">
+      <c r="A97">
+        <v>384</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:3">
+      <c r="A98">
+        <v>388</v>
+      </c>
+      <c r="B98" s="1">
         <v>0.99</v>
       </c>
-      <c r="D8">
-        <v>4981</v>
+      <c r="C98">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1" spans="6:8">
+      <c r="F100">
+        <v>4452</v>
+      </c>
+      <c r="H100">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\ForGraduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD918A6-6F84-459F-934E-1D698F533ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF00A5E-93BA-4895-99E4-573C03E519E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <v>706</v>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="C3">
         <v>738</v>
@@ -1178,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
         <v>738</v>
@@ -1189,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="C5">
         <v>738</v>
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>866</v>
@@ -1222,7 +1222,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C8">
         <v>866</v>
@@ -1233,7 +1233,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>866</v>
@@ -1287,6 +1287,9 @@
       <c r="A14">
         <v>52</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.7</v>
+      </c>
       <c r="C14">
         <v>873</v>
       </c>
@@ -1394,6 +1397,9 @@
       <c r="A24">
         <v>92</v>
       </c>
+      <c r="B24" s="1">
+        <v>0.84</v>
+      </c>
       <c r="C24">
         <v>1380</v>
       </c>
@@ -1402,6 +1408,9 @@
       <c r="A25">
         <v>96</v>
       </c>
+      <c r="B25" s="1">
+        <v>0.84</v>
+      </c>
       <c r="C25">
         <v>1380</v>
       </c>
@@ -1410,6 +1419,9 @@
       <c r="A26">
         <v>100</v>
       </c>
+      <c r="B26" s="1">
+        <v>0.84</v>
+      </c>
       <c r="C26">
         <v>1380</v>
       </c>
@@ -1418,6 +1430,9 @@
       <c r="A27">
         <v>104</v>
       </c>
+      <c r="B27" s="1">
+        <v>0.84</v>
+      </c>
       <c r="C27">
         <v>1380</v>
       </c>
@@ -1426,6 +1441,9 @@
       <c r="A28">
         <v>108</v>
       </c>
+      <c r="B28" s="1">
+        <v>0.84</v>
+      </c>
       <c r="C28">
         <v>1380</v>
       </c>
@@ -1445,6 +1463,9 @@
       <c r="A30">
         <v>116</v>
       </c>
+      <c r="B30" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C30">
         <v>1380</v>
       </c>
@@ -1453,6 +1474,9 @@
       <c r="A31">
         <v>120</v>
       </c>
+      <c r="B31" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C31">
         <v>1380</v>
       </c>
@@ -1461,6 +1485,9 @@
       <c r="A32">
         <v>124</v>
       </c>
+      <c r="B32" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C32">
         <v>1380</v>
       </c>
@@ -1469,6 +1496,9 @@
       <c r="A33">
         <v>128</v>
       </c>
+      <c r="B33" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C33">
         <v>2404</v>
       </c>
@@ -1477,6 +1507,9 @@
       <c r="A34">
         <v>132</v>
       </c>
+      <c r="B34" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C34">
         <v>2404</v>
       </c>
@@ -1485,6 +1518,9 @@
       <c r="A35">
         <v>136</v>
       </c>
+      <c r="B35" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C35">
         <v>2404</v>
       </c>
@@ -1493,6 +1529,9 @@
       <c r="A36">
         <v>140</v>
       </c>
+      <c r="B36" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C36">
         <v>2404</v>
       </c>
@@ -1501,6 +1540,9 @@
       <c r="A37">
         <v>144</v>
       </c>
+      <c r="B37" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C37">
         <v>2404</v>
       </c>
@@ -1509,6 +1551,9 @@
       <c r="A38">
         <v>148</v>
       </c>
+      <c r="B38" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C38">
         <v>2404</v>
       </c>
@@ -1528,6 +1573,9 @@
       <c r="A40">
         <v>156</v>
       </c>
+      <c r="B40" s="1">
+        <v>0.86</v>
+      </c>
       <c r="C40">
         <v>2404</v>
       </c>
@@ -1536,6 +1584,9 @@
       <c r="A41">
         <v>160</v>
       </c>
+      <c r="B41" s="1">
+        <v>0.87</v>
+      </c>
       <c r="C41">
         <v>2404</v>
       </c>
@@ -1555,6 +1606,9 @@
       <c r="A43">
         <v>168</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.88</v>
+      </c>
       <c r="C43">
         <v>2404</v>
       </c>
@@ -1563,6 +1617,9 @@
       <c r="A44">
         <v>172</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.88</v>
+      </c>
       <c r="C44">
         <v>2404</v>
       </c>
@@ -1571,6 +1628,9 @@
       <c r="A45">
         <v>176</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.89</v>
+      </c>
       <c r="C45">
         <v>2404</v>
       </c>
@@ -1579,6 +1639,9 @@
       <c r="A46">
         <v>180</v>
       </c>
+      <c r="B46" s="1">
+        <v>0.89</v>
+      </c>
       <c r="C46">
         <v>2404</v>
       </c>
@@ -1598,6 +1661,9 @@
       <c r="A48">
         <v>188</v>
       </c>
+      <c r="B48" s="1">
+        <v>0.91</v>
+      </c>
       <c r="C48">
         <v>2404</v>
       </c>
@@ -1606,6 +1672,9 @@
       <c r="A49">
         <v>192</v>
       </c>
+      <c r="B49" s="1">
+        <v>0.92</v>
+      </c>
       <c r="C49">
         <v>2404</v>
       </c>
@@ -1614,6 +1683,9 @@
       <c r="A50">
         <v>196</v>
       </c>
+      <c r="B50" s="1">
+        <v>0.93</v>
+      </c>
       <c r="C50">
         <v>2404</v>
       </c>
@@ -1622,6 +1694,9 @@
       <c r="A51">
         <v>200</v>
       </c>
+      <c r="B51" s="1">
+        <v>0.94</v>
+      </c>
       <c r="C51">
         <v>2404</v>
       </c>
@@ -1630,6 +1705,9 @@
       <c r="A52">
         <v>204</v>
       </c>
+      <c r="B52" s="1">
+        <v>0.94</v>
+      </c>
       <c r="C52">
         <v>2404</v>
       </c>
@@ -1649,6 +1727,9 @@
       <c r="A54">
         <v>212</v>
       </c>
+      <c r="B54" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C54">
         <v>2404</v>
       </c>
@@ -1657,6 +1738,9 @@
       <c r="A55">
         <v>216</v>
       </c>
+      <c r="B55" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C55">
         <v>2404</v>
       </c>
@@ -1665,6 +1749,9 @@
       <c r="A56">
         <v>220</v>
       </c>
+      <c r="B56" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C56">
         <v>2404</v>
       </c>
@@ -1673,6 +1760,9 @@
       <c r="A57">
         <v>224</v>
       </c>
+      <c r="B57" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C57">
         <v>2404</v>
       </c>
@@ -1681,6 +1771,9 @@
       <c r="A58">
         <v>228</v>
       </c>
+      <c r="B58" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C58">
         <v>2404</v>
       </c>
@@ -1700,6 +1793,9 @@
       <c r="A60">
         <v>236</v>
       </c>
+      <c r="B60" s="1">
+        <v>0.96</v>
+      </c>
       <c r="C60">
         <v>2404</v>
       </c>
@@ -1708,6 +1804,9 @@
       <c r="A61">
         <v>240</v>
       </c>
+      <c r="B61" s="1">
+        <v>0.96</v>
+      </c>
       <c r="C61">
         <v>2404</v>
       </c>
@@ -1716,6 +1815,9 @@
       <c r="A62">
         <v>244</v>
       </c>
+      <c r="B62" s="1">
+        <v>0.96</v>
+      </c>
       <c r="C62">
         <v>2404</v>
       </c>
@@ -1724,6 +1826,9 @@
       <c r="A63">
         <v>248</v>
       </c>
+      <c r="B63" s="1">
+        <v>0.96</v>
+      </c>
       <c r="C63">
         <v>2404</v>
       </c>
@@ -1732,6 +1837,9 @@
       <c r="A64">
         <v>252</v>
       </c>
+      <c r="B64" s="1">
+        <v>0.96</v>
+      </c>
       <c r="C64">
         <v>2404</v>
       </c>
@@ -1751,6 +1859,9 @@
       <c r="A66">
         <v>260</v>
       </c>
+      <c r="B66" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C66">
         <v>4452</v>
       </c>
@@ -1759,6 +1870,9 @@
       <c r="A67">
         <v>264</v>
       </c>
+      <c r="B67" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C67">
         <v>4452</v>
       </c>
@@ -1767,6 +1881,9 @@
       <c r="A68">
         <v>268</v>
       </c>
+      <c r="B68" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C68">
         <v>4452</v>
       </c>
@@ -1775,6 +1892,9 @@
       <c r="A69">
         <v>272</v>
       </c>
+      <c r="B69" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C69">
         <v>4452</v>
       </c>
@@ -1783,6 +1903,9 @@
       <c r="A70">
         <v>276</v>
       </c>
+      <c r="B70" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C70">
         <v>4452</v>
       </c>
@@ -1791,6 +1914,9 @@
       <c r="A71">
         <v>280</v>
       </c>
+      <c r="B71" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C71">
         <v>4452</v>
       </c>
@@ -1799,6 +1925,9 @@
       <c r="A72">
         <v>284</v>
       </c>
+      <c r="B72" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C72">
         <v>4452</v>
       </c>
@@ -1807,6 +1936,9 @@
       <c r="A73">
         <v>288</v>
       </c>
+      <c r="B73" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C73">
         <v>4452</v>
       </c>
@@ -1815,6 +1947,9 @@
       <c r="A74">
         <v>292</v>
       </c>
+      <c r="B74" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C74">
         <v>4452</v>
       </c>
@@ -1823,6 +1958,9 @@
       <c r="A75">
         <v>296</v>
       </c>
+      <c r="B75" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C75">
         <v>4452</v>
       </c>
@@ -1831,6 +1969,9 @@
       <c r="A76">
         <v>300</v>
       </c>
+      <c r="B76" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C76">
         <v>4452</v>
       </c>
@@ -1839,6 +1980,9 @@
       <c r="A77">
         <v>304</v>
       </c>
+      <c r="B77" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C77">
         <v>4452</v>
       </c>
@@ -1847,6 +1991,9 @@
       <c r="A78">
         <v>308</v>
       </c>
+      <c r="B78" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C78">
         <v>4452</v>
       </c>
@@ -1855,6 +2002,9 @@
       <c r="A79">
         <v>312</v>
       </c>
+      <c r="B79" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C79">
         <v>4452</v>
       </c>
@@ -1863,6 +2013,9 @@
       <c r="A80">
         <v>316</v>
       </c>
+      <c r="B80" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C80">
         <v>4452</v>
       </c>
@@ -1871,6 +2024,9 @@
       <c r="A81">
         <v>320</v>
       </c>
+      <c r="B81" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C81">
         <v>4452</v>
       </c>
@@ -1879,6 +2035,9 @@
       <c r="A82">
         <v>324</v>
       </c>
+      <c r="B82" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C82">
         <v>4452</v>
       </c>
@@ -1887,6 +2046,9 @@
       <c r="A83">
         <v>328</v>
       </c>
+      <c r="B83" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C83">
         <v>4452</v>
       </c>
@@ -1895,6 +2057,9 @@
       <c r="A84">
         <v>332</v>
       </c>
+      <c r="B84" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C84">
         <v>4452</v>
       </c>
@@ -1903,6 +2068,9 @@
       <c r="A85">
         <v>336</v>
       </c>
+      <c r="B85" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C85">
         <v>4452</v>
       </c>
@@ -1911,6 +2079,9 @@
       <c r="A86">
         <v>340</v>
       </c>
+      <c r="B86" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C86">
         <v>4452</v>
       </c>
@@ -1919,6 +2090,9 @@
       <c r="A87">
         <v>344</v>
       </c>
+      <c r="B87" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C87">
         <v>4452</v>
       </c>
@@ -1927,6 +2101,9 @@
       <c r="A88">
         <v>348</v>
       </c>
+      <c r="B88" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C88">
         <v>4452</v>
       </c>
@@ -1935,6 +2112,9 @@
       <c r="A89">
         <v>352</v>
       </c>
+      <c r="B89" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C89">
         <v>4452</v>
       </c>
@@ -1943,6 +2123,9 @@
       <c r="A90">
         <v>356</v>
       </c>
+      <c r="B90" s="1">
+        <v>0.98</v>
+      </c>
       <c r="C90">
         <v>4452</v>
       </c>
@@ -1951,6 +2134,9 @@
       <c r="A91">
         <v>360</v>
       </c>
+      <c r="B91" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C91">
         <v>4452</v>
       </c>
@@ -1959,6 +2145,9 @@
       <c r="A92">
         <v>364</v>
       </c>
+      <c r="B92" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C92">
         <v>4452</v>
       </c>
@@ -1967,6 +2156,9 @@
       <c r="A93">
         <v>368</v>
       </c>
+      <c r="B93" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C93">
         <v>4452</v>
       </c>
@@ -1975,6 +2167,9 @@
       <c r="A94">
         <v>372</v>
       </c>
+      <c r="B94" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C94">
         <v>4452</v>
       </c>
@@ -1983,6 +2178,9 @@
       <c r="A95">
         <v>376</v>
       </c>
+      <c r="B95" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C95">
         <v>4452</v>
       </c>
@@ -1991,6 +2189,9 @@
       <c r="A96">
         <v>380</v>
       </c>
+      <c r="B96" s="1">
+        <v>0.99</v>
+      </c>
       <c r="C96">
         <v>4452</v>
       </c>
@@ -1998,6 +2199,9 @@
     <row r="97" spans="1:3">
       <c r="A97">
         <v>384</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.99</v>
       </c>
       <c r="C97">
         <v>4452</v>
@@ -2025,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78785FB9-A291-4E75-8EC1-3B24C941EE30}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -2122,7 +2326,7 @@
         <v>3630.0915300000001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">(F3+G3)/D3</f>
+        <f t="shared" ref="I3:I9" si="0">(F3+G3)/D3</f>
         <v>4.4352585333006858E-2</v>
       </c>
     </row>
@@ -2341,5 +2545,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\ForGraduate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF00A5E-93BA-4895-99E4-573C03E519E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="resnet_32" sheetId="1" r:id="rId1"/>
+    <sheet name="resnet_47" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="parallel" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Batch_size</t>
   </si>
@@ -68,12 +64,39 @@
   <si>
     <t>step</t>
   </si>
+  <si>
+    <t>利用率</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>g2/g1+g2</t>
+  </si>
+  <si>
+    <t>p/s</t>
+  </si>
+  <si>
+    <t>g1+g2</t>
+  </si>
+  <si>
+    <t>g1/g1+g2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +108,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,25 +127,348 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -125,13 +476,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,27 +734,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,16 +1068,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -450,7 +1099,7 @@
     <col min="18" max="19" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12" customHeight="1">
+    <row r="2" ht="12" customHeight="1" spans="1:19">
       <c r="A2">
         <v>16</v>
       </c>
@@ -517,46 +1166,46 @@
         <v>5571.27682</v>
       </c>
       <c r="G2">
-        <v>5592.3543200000004</v>
-      </c>
-      <c r="H2" s="2">
+        <v>5592.35432</v>
+      </c>
+      <c r="H2" s="6">
         <v>68280</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>68279</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="6">
         <v>3241.46783</v>
       </c>
-      <c r="K2" s="5">
-        <v>3221.7730799999999</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="9">
+        <v>3221.77308</v>
+      </c>
+      <c r="L2" s="6">
         <v>93421</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="6">
         <v>93420</v>
       </c>
-      <c r="N2" s="2">
-        <v>1722.1623199999999</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1740.8901800000001</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="N2" s="6">
+        <v>1722.16232</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1740.89018</v>
+      </c>
+      <c r="P2" s="6">
         <v>98473</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="6">
         <v>98474</v>
       </c>
-      <c r="R2" s="2">
-        <v>1827.1878099999999</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1815.4878100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="6">
+        <v>1827.18781</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1815.48781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>32</v>
       </c>
@@ -573,13 +1222,13 @@
         <v>113450</v>
       </c>
       <c r="F3">
-        <v>3165.1992495059899</v>
+        <v>3165.19924950599</v>
       </c>
       <c r="G3">
-        <v>3174.5033800000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>3174.50338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>64</v>
       </c>
@@ -589,27 +1238,27 @@
       <c r="C4">
         <v>643</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>67438</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>67439</v>
       </c>
-      <c r="F4" s="3">
-        <v>2803.4253899999999</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="7">
+        <v>2803.42539</v>
+      </c>
+      <c r="G4" s="7">
         <v>2785.26305</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>80</v>
       </c>
@@ -619,19 +1268,19 @@
       <c r="C5">
         <v>645</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>96</v>
       </c>
@@ -641,32 +1290,32 @@
       <c r="C6">
         <v>605</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>71137</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>71136</v>
       </c>
-      <c r="F6" s="2">
-        <v>1887.9342899999999</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="6">
+        <v>1887.93429</v>
+      </c>
+      <c r="G6" s="6">
         <v>1907.50811</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>76605</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>76606</v>
       </c>
-      <c r="J6" s="2">
-        <v>2084.7572700000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2075.7636400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.25">
+      <c r="J6" s="6">
+        <v>2084.75727</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2075.76364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>112</v>
       </c>
@@ -676,12 +1325,12 @@
       <c r="C7">
         <v>868</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>128</v>
       </c>
@@ -691,56 +1340,56 @@
       <c r="C8">
         <v>931</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>38552</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>38551</v>
       </c>
-      <c r="F8" s="3">
-        <v>2623.0009500000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2602.6850300000001</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="7">
+        <v>2623.00095</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2602.68503</v>
+      </c>
+      <c r="H8" s="6">
         <v>57408</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>57409</v>
       </c>
-      <c r="J8" s="2">
-        <v>2068.6200100000001</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="6">
+        <v>2068.62001</v>
+      </c>
+      <c r="K8" s="6">
         <v>2059.52313</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="6">
         <v>53958</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="6">
         <v>53957</v>
       </c>
-      <c r="N8" s="2">
-        <v>1806.0634700000001</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1827.0125599999999</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="N8" s="6">
+        <v>1806.06347</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1827.01256</v>
+      </c>
+      <c r="P8" s="6">
         <v>55759</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="6">
         <v>55760</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="6">
         <v>1865.00821</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="6">
         <v>1856.35916</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>144</v>
       </c>
@@ -750,20 +1399,20 @@
       <c r="C9">
         <v>940</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>160</v>
       </c>
@@ -773,20 +1422,20 @@
       <c r="C10">
         <v>939</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>176</v>
       </c>
@@ -796,20 +1445,20 @@
       <c r="C11">
         <v>945</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>192</v>
       </c>
@@ -819,28 +1468,28 @@
       <c r="C12">
         <v>875</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>49270</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>49271</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>2032.30773</v>
       </c>
-      <c r="G12" s="2">
-        <v>2053.2813500000002</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.25">
+      <c r="G12" s="6">
+        <v>2053.28135</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>208</v>
       </c>
@@ -850,20 +1499,20 @@
       <c r="C13">
         <v>876</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.25">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>224</v>
       </c>
@@ -873,28 +1522,28 @@
       <c r="C14">
         <v>1385</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>38416</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>38417</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>1940.67552</v>
       </c>
-      <c r="G14" s="2">
-        <v>1961.3627100000001</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.25">
+      <c r="G14" s="6">
+        <v>1961.36271</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>240</v>
       </c>
@@ -904,16 +1553,16 @@
       <c r="C15">
         <v>1393</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>56879</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>56878</v>
       </c>
-      <c r="F15" s="2">
-        <v>3062.5341800000001</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="6">
+        <v>3062.53418</v>
+      </c>
+      <c r="G15" s="6">
         <v>3084.00839</v>
       </c>
       <c r="H15">
@@ -925,21 +1574,21 @@
       <c r="J15">
         <v>2685</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="6">
         <v>82061</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="6">
         <v>82060</v>
       </c>
-      <c r="M15" s="2">
-        <v>8667.2583099999993</v>
-      </c>
-      <c r="N15" s="2">
-        <v>8657.4860599999993</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.25">
+      <c r="M15" s="6">
+        <v>8667.25831</v>
+      </c>
+      <c r="N15" s="6">
+        <v>8657.48606</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>256</v>
       </c>
@@ -949,17 +1598,17 @@
       <c r="C16">
         <v>1521</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>67178</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>67177</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>4030.90951</v>
       </c>
-      <c r="G16" s="2">
-        <v>4050.9671199999998</v>
+      <c r="G16" s="6">
+        <v>4050.96712</v>
       </c>
       <c r="H16">
         <v>1024</v>
@@ -970,17 +1619,17 @@
       <c r="J16">
         <v>4981</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <v>69153</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="6">
         <v>69154</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="6">
         <v>13578.19541</v>
       </c>
-      <c r="N16" s="2">
-        <v>13599.309509999999</v>
+      <c r="N16" s="6">
+        <v>13599.30951</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1071,16 +1720,17 @@
       <c r="B113" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1151,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1162,7 +1812,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1173,7 +1823,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1184,7 +1834,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1195,7 +1845,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1206,7 +1856,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1217,18 +1867,18 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="C8">
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -1239,7 +1889,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>36</v>
       </c>
@@ -1250,7 +1900,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>40</v>
       </c>
@@ -1261,7 +1911,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>44</v>
       </c>
@@ -1272,7 +1922,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>48</v>
       </c>
@@ -1283,7 +1933,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1294,7 +1944,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>56</v>
       </c>
@@ -1305,7 +1955,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>60</v>
       </c>
@@ -2219,14 +2869,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78785FB9-A291-4E75-8EC1-3B24C941EE30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2247,7 +2898,7 @@
     <col min="11" max="11" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>16</v>
       </c>
@@ -2293,17 +2944,17 @@
         <v>375964</v>
       </c>
       <c r="F2">
-        <v>7736.5415700000003</v>
+        <v>7736.54157</v>
       </c>
       <c r="G2">
-        <v>7755.4318400000002</v>
+        <v>7755.43184</v>
       </c>
       <c r="I2">
         <f>(F2+G2)/D2</f>
-        <v>4.1205892596385303E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>0.0412058925963853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>32</v>
       </c>
@@ -2323,14 +2974,14 @@
         <v>3615.34681</v>
       </c>
       <c r="G3">
-        <v>3630.0915300000001</v>
+        <v>3630.09153</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="0">(F3+G3)/D3</f>
-        <v>4.4352585333006858E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>0.0443525853330069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>48</v>
       </c>
@@ -2347,17 +2998,17 @@
         <v>117165</v>
       </c>
       <c r="F4">
-        <v>3487.2914700000001</v>
+        <v>3487.29147</v>
       </c>
       <c r="G4">
-        <v>3404.0426299999999</v>
+        <v>3404.04263</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>5.8817845925369566E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>0.0588178459253696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>64</v>
       </c>
@@ -2374,17 +3025,17 @@
         <v>100921</v>
       </c>
       <c r="F5">
-        <v>4150.8203599999997</v>
+        <v>4150.82036</v>
       </c>
       <c r="G5">
-        <v>4148.8188399999999</v>
+        <v>4148.81884</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>8.223978596908442E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>0.0822397859690844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>80</v>
       </c>
@@ -2401,17 +3052,17 @@
         <v>83162</v>
       </c>
       <c r="F6">
-        <v>3511.3890799999999</v>
+        <v>3511.38908</v>
       </c>
       <c r="G6">
-        <v>3530.0437499999998</v>
+        <v>3530.04375</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>8.4670259971381501E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0.0846702599713815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>96</v>
       </c>
@@ -2435,10 +3086,10 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>9.8604871991392395E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+        <v>0.0986048719913924</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:21">
       <c r="A8">
         <v>112</v>
       </c>
@@ -2458,11 +3109,11 @@
         <v>4136.13724</v>
       </c>
       <c r="G8">
-        <v>4139.9616100000003</v>
+        <v>4139.96161</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.12173777047202977</v>
+        <v>0.12173777047203</v>
       </c>
       <c r="M8">
         <v>512</v>
@@ -2480,14 +3131,14 @@
         <v>39756</v>
       </c>
       <c r="R8">
-        <v>8950.8710100000008</v>
+        <v>8950.87101</v>
       </c>
       <c r="S8">
-        <v>8970.8114299999997</v>
+        <v>8970.81143</v>
       </c>
       <c r="U8">
         <f>(R8+S8)/P8</f>
-        <v>0.45078055285861612</v>
+        <v>0.450780552858616</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2507,14 +3158,14 @@
         <v>53039</v>
       </c>
       <c r="F9">
-        <v>3617.4854799999998</v>
+        <v>3617.48548</v>
       </c>
       <c r="G9">
-        <v>3617.0688399999999</v>
+        <v>3617.06884</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.13640837016366242</v>
+        <v>0.136408370163662</v>
       </c>
       <c r="M9">
         <v>256</v>
@@ -2532,19 +3183,674 @@
         <v>35630</v>
       </c>
       <c r="R9">
-        <v>4151.2259299999996</v>
+        <v>4151.22593</v>
       </c>
       <c r="S9">
-        <v>4171.6838600000001</v>
+        <v>4171.68386</v>
       </c>
       <c r="U9">
         <f>(R9+S9)/P9</f>
-        <v>0.23359930927053804</v>
+        <v>0.233599309270538</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="11.5"/>
+    <col min="5" max="6" width="11.5"/>
+    <col min="7" max="8" width="12.625"/>
+    <col min="10" max="10" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:10">
+      <c r="A2" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3617.48548</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5794.71229</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2059.52313</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4129.35772</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2/(D2+A2)</f>
+        <v>0.448484848484848</v>
+      </c>
+      <c r="H2" s="4">
+        <f>C2/B2</f>
+        <v>1.60186193477133</v>
+      </c>
+      <c r="I2">
+        <f>A2+D2</f>
+        <v>1.65</v>
+      </c>
+      <c r="J2" s="4">
+        <f>A2/(A2+D2)</f>
+        <v>0.551515151515152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2059.52313</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3354.31341</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2075.76364</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3515.45111</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3/(D3+A3)</f>
+        <v>0.482517482517482</v>
+      </c>
+      <c r="H3" s="4">
+        <f>C3/B3</f>
+        <v>1.62868450523301</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="0">A3+D3</f>
+        <v>1.43</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J11" si="1">A3/(A3+D3)</f>
+        <v>0.517482517482518</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2075.76364</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3489.02098</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2113.88035</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4080.83831</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D4/(D4+A4)</f>
+        <v>0.492647058823529</v>
+      </c>
+      <c r="H4" s="4">
+        <f>C4/B4</f>
+        <v>1.68083731344287</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.507352941176471</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2075.76364</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3515.45111</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2059.52313</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3354.31341</v>
+      </c>
+      <c r="G5" s="4">
+        <f>D5/(D5+A5)</f>
+        <v>0.517482517482518</v>
+      </c>
+      <c r="H5" s="4">
+        <f>C5/B5</f>
+        <v>1.69357003960239</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.43</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.482517482517482</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3487.29147</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6506.35971</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2113.88035</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4267.08846</v>
+      </c>
+      <c r="G6" s="4">
+        <f>D6/(D6+A6)</f>
+        <v>0.465277777777778</v>
+      </c>
+      <c r="H6" s="4">
+        <f>C6/B6</f>
+        <v>1.86573441479499</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.534722222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3617.48548</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6821.08719</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3354.57681</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7489.36614</v>
+      </c>
+      <c r="G7" s="4">
+        <f>D7/(D7+A7)</f>
+        <v>0.48876404494382</v>
+      </c>
+      <c r="H7" s="4">
+        <f>C7/B7</f>
+        <v>1.88558799412237</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51123595505618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2113.88035</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4080.83831</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2075.76364</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3489.02098</v>
+      </c>
+      <c r="G8" s="4">
+        <f>D8/(D8+A8)</f>
+        <v>0.507352941176471</v>
+      </c>
+      <c r="H8" s="4">
+        <f>C8/B8</f>
+        <v>1.93049635472509</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.492647058823529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2059.52313</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4129.35772</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3617.48548</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5794.71229</v>
+      </c>
+      <c r="G9" s="4">
+        <f>D9/(D9+A9)</f>
+        <v>0.551515151515152</v>
+      </c>
+      <c r="H9" s="4">
+        <f>C9/B9</f>
+        <v>2.00500672211436</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.448484848484848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2113.88035</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4267.08846</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3487.29147</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6506.35971</v>
+      </c>
+      <c r="G10" s="4">
+        <f>D10/(D10+A10)</f>
+        <v>0.534722222222222</v>
+      </c>
+      <c r="H10" s="4">
+        <f>C10/B10</f>
+        <v>2.01860453454709</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.465277777777778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3354.57681</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7489.36614</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3617.48548</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6821.08719</v>
+      </c>
+      <c r="G11" s="4">
+        <f>D11/(D11+A11)</f>
+        <v>0.51123595505618</v>
+      </c>
+      <c r="H11" s="4">
+        <f>C11/B11</f>
+        <v>2.23258150407353</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48876404494382</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H11">
+    <sortCondition ref="H2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2075.76364</v>
+      </c>
+      <c r="C2">
+        <v>3515.45111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="F2">
+        <v>3354.31341</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2075.76364</v>
+      </c>
+      <c r="C3">
+        <v>3489.02098</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E3">
+        <v>2113.88035</v>
+      </c>
+      <c r="F3">
+        <v>4080.83831</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B4">
+        <v>3354.57681</v>
+      </c>
+      <c r="C4">
+        <v>7489.36614</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E4">
+        <v>3617.48548</v>
+      </c>
+      <c r="F4">
+        <v>6821.08719</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="C5">
+        <v>4129.35772</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E5">
+        <v>3617.48548</v>
+      </c>
+      <c r="F5">
+        <v>5794.71229</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B6">
+        <v>2113.88035</v>
+      </c>
+      <c r="C6">
+        <v>4267.08846</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E6">
+        <v>3487.29147</v>
+      </c>
+      <c r="F6">
+        <v>6506.35971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="C7">
+        <v>3354.31341</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2075.76364</v>
+      </c>
+      <c r="F7">
+        <v>3515.45111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B8">
+        <v>2113.88035</v>
+      </c>
+      <c r="C8">
+        <v>4080.83831</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2075.76364</v>
+      </c>
+      <c r="F8">
+        <v>3489.02098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B9">
+        <v>3617.48548</v>
+      </c>
+      <c r="C9">
+        <v>6821.08719</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E9">
+        <v>3354.57681</v>
+      </c>
+      <c r="F9">
+        <v>7489.36614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B10">
+        <v>3617.48548</v>
+      </c>
+      <c r="C10">
+        <v>5794.71229</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="F10">
+        <v>4129.35772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="B11">
+        <v>3487.29147</v>
+      </c>
+      <c r="C11">
+        <v>6506.35971</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E11">
+        <v>2113.88035</v>
+      </c>
+      <c r="F11">
+        <v>4267.08846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\ForGraduate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA876B0-45E1-4D1A-9FBC-35A579D2D54A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resnet_32" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,21 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="parallel" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Batch_size</t>
   </si>
@@ -74,29 +88,39 @@
     <t>parallel</t>
   </si>
   <si>
-    <t>g2/g1+g2</t>
+    <t>通信时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>p/s</t>
+    <t>友通信时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>g1+g2</t>
+    <t>先于友执行完</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>g1/g1+g2</t>
+    <t>真正计算时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正计算时间-并行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友-单独运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行中运行的比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,367 +132,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -476,255 +166,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,83 +182,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1068,38 +457,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="11.5"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="12.625"/>
-    <col min="15" max="15" width="11.5"/>
-    <col min="18" max="19" width="11.5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,32 +493,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="12" customHeight="1" spans="1:19">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1166,46 +514,10 @@
         <v>5571.27682</v>
       </c>
       <c r="G2">
-        <v>5592.35432</v>
-      </c>
-      <c r="H2" s="6">
-        <v>68280</v>
-      </c>
-      <c r="I2" s="6">
-        <v>68279</v>
-      </c>
-      <c r="J2" s="6">
-        <v>3241.46783</v>
-      </c>
-      <c r="K2" s="9">
-        <v>3221.77308</v>
-      </c>
-      <c r="L2" s="6">
-        <v>93421</v>
-      </c>
-      <c r="M2" s="6">
-        <v>93420</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1722.16232</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1740.89018</v>
-      </c>
-      <c r="P2" s="6">
-        <v>98473</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>98474</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1827.18781</v>
-      </c>
-      <c r="S2" s="6">
-        <v>1815.48781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5592.3543200000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1222,13 +534,13 @@
         <v>113450</v>
       </c>
       <c r="F3">
-        <v>3165.19924950599</v>
+        <v>3165.1992495059899</v>
       </c>
       <c r="G3">
-        <v>3174.50338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3174.5033800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -1238,27 +550,20 @@
       <c r="C4">
         <v>643</v>
       </c>
-      <c r="D4" s="7">
-        <v>67438</v>
-      </c>
-      <c r="E4" s="7">
-        <v>67439</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2803.42539</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2785.26305</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="D4" s="2">
+        <v>93421</v>
+      </c>
+      <c r="E4" s="2">
+        <v>93420</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1722.1623199999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1740.8901800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14.25">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1268,19 +573,20 @@
       <c r="C5">
         <v>645</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="D5" s="2">
+        <v>76605</v>
+      </c>
+      <c r="E5" s="2">
+        <v>76606</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2084.7572700000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2095.7572700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.25">
       <c r="A6">
         <v>96</v>
       </c>
@@ -1290,32 +596,20 @@
       <c r="C6">
         <v>605</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>71137</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>71136</v>
       </c>
-      <c r="F6" s="6">
-        <v>1887.93429</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="2">
+        <v>1887.9342899999999</v>
+      </c>
+      <c r="G6" s="2">
         <v>1907.50811</v>
       </c>
-      <c r="H6" s="6">
-        <v>76605</v>
-      </c>
-      <c r="I6" s="6">
-        <v>76606</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2084.75727</v>
-      </c>
-      <c r="K6" s="6">
-        <v>2075.76364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:23" ht="14.25">
       <c r="A7">
         <v>112</v>
       </c>
@@ -1325,12 +619,41 @@
       <c r="C7">
         <v>868</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="D7" s="2">
+        <v>63024</v>
+      </c>
+      <c r="E7" s="2">
+        <v>63025</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1870.912</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1882.912</v>
+      </c>
+      <c r="Q7">
+        <v>1024</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="S7">
+        <v>4981</v>
+      </c>
+      <c r="T7" s="2">
+        <v>69153</v>
+      </c>
+      <c r="U7" s="2">
+        <v>69154</v>
+      </c>
+      <c r="V7" s="2">
+        <v>13578.19541</v>
+      </c>
+      <c r="W7" s="2">
+        <v>13599.309509999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14.25">
       <c r="A8">
         <v>128</v>
       </c>
@@ -1340,394 +663,142 @@
       <c r="C8">
         <v>931</v>
       </c>
-      <c r="D8" s="7">
-        <v>38552</v>
-      </c>
-      <c r="E8" s="7">
-        <v>38551</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2623.00095</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2602.68503</v>
-      </c>
-      <c r="H8" s="6">
-        <v>57408</v>
-      </c>
-      <c r="I8" s="6">
-        <v>57409</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2068.62001</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2059.52313</v>
-      </c>
-      <c r="L8" s="6">
-        <v>53958</v>
-      </c>
-      <c r="M8" s="6">
-        <v>53957</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1806.06347</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1827.01256</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="D8" s="2">
         <v>55759</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="E8" s="2">
         <v>55760</v>
       </c>
-      <c r="R8" s="6">
+      <c r="F8" s="2">
         <v>1865.00821</v>
       </c>
-      <c r="S8" s="6">
+      <c r="G8" s="2">
         <v>1856.35916</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:23" ht="14.25">
       <c r="A9">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="C9">
-        <v>940</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>875</v>
+      </c>
+      <c r="D9" s="2">
+        <v>49270</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49271</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2032.30773</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2053.2813500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.25">
       <c r="A10">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B10" s="1">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="C10">
-        <v>939</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1385</v>
+      </c>
+      <c r="D10" s="2">
+        <v>38416</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38417</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1940.67552</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1961.3627100000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.25">
       <c r="A11">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="C11">
-        <v>945</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1393</v>
+      </c>
+      <c r="D11" s="2">
+        <v>56879</v>
+      </c>
+      <c r="E11" s="2">
+        <v>56878</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3062.5341800000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3084.00839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14.25">
       <c r="A12">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B12" s="1">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C12">
-        <v>875</v>
-      </c>
-      <c r="D12" s="6">
-        <v>49270</v>
-      </c>
-      <c r="E12" s="6">
-        <v>49271</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2032.30773</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2053.28135</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1521</v>
+      </c>
+      <c r="D12" s="2">
+        <v>67178</v>
+      </c>
+      <c r="E12" s="2">
+        <v>67177</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4030.90951</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4050.9671199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.25">
       <c r="A13">
-        <v>208</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="C13">
-        <v>876</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>224</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="C14">
-        <v>1385</v>
-      </c>
-      <c r="D14" s="6">
-        <v>38416</v>
-      </c>
-      <c r="E14" s="6">
-        <v>38417</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1940.67552</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1961.36271</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>240</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="C15">
-        <v>1393</v>
-      </c>
-      <c r="D15" s="6">
-        <v>56879</v>
-      </c>
-      <c r="E15" s="6">
-        <v>56878</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3062.53418</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3084.00839</v>
-      </c>
-      <c r="H15">
-        <v>512</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="J15">
         <v>2685</v>
       </c>
-      <c r="K15" s="6">
+      <c r="D13" s="2">
         <v>82061</v>
       </c>
-      <c r="L15" s="6">
+      <c r="E13" s="2">
         <v>82060</v>
       </c>
-      <c r="M15" s="6">
-        <v>8667.25831</v>
-      </c>
-      <c r="N15" s="6">
-        <v>8657.48606</v>
-      </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>256</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="C16">
-        <v>1521</v>
-      </c>
-      <c r="D16" s="6">
-        <v>67178</v>
-      </c>
-      <c r="E16" s="6">
-        <v>67177</v>
-      </c>
-      <c r="F16" s="6">
-        <v>4030.90951</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4050.96712</v>
-      </c>
-      <c r="H16">
-        <v>1024</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="J16">
-        <v>4981</v>
-      </c>
-      <c r="K16" s="6">
-        <v>69153</v>
-      </c>
-      <c r="L16" s="6">
-        <v>69154</v>
-      </c>
-      <c r="M16" s="6">
-        <v>13578.19541</v>
-      </c>
-      <c r="N16" s="6">
-        <v>13599.30951</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="1"/>
+      <c r="F13" s="2">
+        <v>8667.2583099999993</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8657.4860599999993</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1801,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1812,7 +883,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1823,7 +894,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1834,7 +905,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1845,7 +916,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1856,7 +927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1867,18 +938,18 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C8">
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>32</v>
       </c>
@@ -1889,7 +960,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>36</v>
       </c>
@@ -1900,7 +971,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>40</v>
       </c>
@@ -1911,7 +982,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>44</v>
       </c>
@@ -1922,7 +993,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>48</v>
       </c>
@@ -1933,7 +1004,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>52</v>
       </c>
@@ -1944,7 +1015,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>56</v>
       </c>
@@ -1955,7 +1026,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>60</v>
       </c>
@@ -2869,19 +1940,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2898,7 +1968,7 @@
     <col min="11" max="11" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>16</v>
       </c>
@@ -2944,17 +2014,17 @@
         <v>375964</v>
       </c>
       <c r="F2">
-        <v>7736.54157</v>
+        <v>7736.5415700000003</v>
       </c>
       <c r="G2">
-        <v>7755.43184</v>
+        <v>7755.4318400000002</v>
       </c>
       <c r="I2">
         <f>(F2+G2)/D2</f>
-        <v>0.0412058925963853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>4.1205892596385303E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>32</v>
       </c>
@@ -2974,14 +2044,14 @@
         <v>3615.34681</v>
       </c>
       <c r="G3">
-        <v>3630.09153</v>
+        <v>3630.0915300000001</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="0">(F3+G3)/D3</f>
-        <v>0.0443525853330069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>4.4352585333006858E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>48</v>
       </c>
@@ -2998,17 +2068,17 @@
         <v>117165</v>
       </c>
       <c r="F4">
-        <v>3487.29147</v>
+        <v>3487.2914700000001</v>
       </c>
       <c r="G4">
-        <v>3404.04263</v>
+        <v>3404.0426299999999</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.0588178459253696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>5.8817845925369566E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>64</v>
       </c>
@@ -3025,17 +2095,17 @@
         <v>100921</v>
       </c>
       <c r="F5">
-        <v>4150.82036</v>
+        <v>4150.8203599999997</v>
       </c>
       <c r="G5">
-        <v>4148.81884</v>
+        <v>4148.8188399999999</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.0822397859690844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>8.223978596908442E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>80</v>
       </c>
@@ -3052,17 +2122,17 @@
         <v>83162</v>
       </c>
       <c r="F6">
-        <v>3511.38908</v>
+        <v>3511.3890799999999</v>
       </c>
       <c r="G6">
-        <v>3530.04375</v>
+        <v>3530.0437499999998</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.0846702599713815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>8.4670259971381501E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>96</v>
       </c>
@@ -3086,10 +2156,10 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.0986048719913924</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:21">
+        <v>9.8604871991392395E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8">
         <v>112</v>
       </c>
@@ -3109,11 +2179,11 @@
         <v>4136.13724</v>
       </c>
       <c r="G8">
-        <v>4139.96161</v>
+        <v>4139.9616100000003</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.12173777047203</v>
+        <v>0.12173777047202977</v>
       </c>
       <c r="M8">
         <v>512</v>
@@ -3131,14 +2201,14 @@
         <v>39756</v>
       </c>
       <c r="R8">
-        <v>8950.87101</v>
+        <v>8950.8710100000008</v>
       </c>
       <c r="S8">
-        <v>8970.81143</v>
+        <v>8970.8114299999997</v>
       </c>
       <c r="U8">
         <f>(R8+S8)/P8</f>
-        <v>0.450780552858616</v>
+        <v>0.45078055285861612</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3158,14 +2228,14 @@
         <v>53039</v>
       </c>
       <c r="F9">
-        <v>3617.48548</v>
+        <v>3617.4854799999998</v>
       </c>
       <c r="G9">
-        <v>3617.06884</v>
+        <v>3617.0688399999999</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.136408370163662</v>
+        <v>0.13640837016366242</v>
       </c>
       <c r="M9">
         <v>256</v>
@@ -3183,41 +2253,48 @@
         <v>35630</v>
       </c>
       <c r="R9">
-        <v>4151.22593</v>
+        <v>4151.2259299999996</v>
       </c>
       <c r="S9">
-        <v>4171.68386</v>
+        <v>4171.6838600000001</v>
       </c>
       <c r="U9">
         <f>(R9+S9)/P9</f>
-        <v>0.233599309270538</v>
+        <v>0.23359930927053804</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="11.5"/>
-    <col min="5" max="6" width="11.5"/>
-    <col min="7" max="8" width="12.625"/>
-    <col min="10" max="10" width="12.625"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="15" width="19.125" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3236,400 +2313,809 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" s="3">
+      <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
+      <c r="A2" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="C2">
+        <v>3515.45111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="F2">
+        <v>3354.3134100000002</v>
+      </c>
+      <c r="G2" t="b">
+        <f>B2&lt;E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>B2*(1-A2)</f>
+        <v>643.48672840000017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25">
+      <c r="A3" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="C3">
+        <v>3489.0209799999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E3">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="F3">
+        <v>4080.8383100000001</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G11" si="0">B3&lt;E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">B3*(1-A3)</f>
+        <v>643.48672840000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B4">
+        <v>3354.57681</v>
+      </c>
+      <c r="C4">
+        <v>6821.0871900000002</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.91</v>
       </c>
-      <c r="B2" s="4">
-        <v>3617.48548</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5794.71229</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E4">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="F4">
+        <v>7489.3661400000001</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>436.09498530000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25">
+      <c r="A5" s="1">
         <v>0.74</v>
       </c>
-      <c r="E2" s="5">
+      <c r="B5" s="2">
         <v>2059.52313</v>
       </c>
-      <c r="F2" s="4">
+      <c r="C5">
         <v>4129.35772</v>
       </c>
-      <c r="G2" s="4">
-        <f>D2/(D2+A2)</f>
-        <v>0.448484848484848</v>
-      </c>
-      <c r="H2" s="4">
-        <f>C2/B2</f>
-        <v>1.60186193477133</v>
-      </c>
-      <c r="I2">
-        <f>A2+D2</f>
-        <v>1.65</v>
-      </c>
-      <c r="J2" s="4">
-        <f>A2/(A2+D2)</f>
-        <v>0.551515151515152</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="3">
+      <c r="D5" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E5">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="F5">
+        <v>5794.7122900000004</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>535.47601380000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B6">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="C6">
+        <v>4267.0884599999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E6">
+        <v>3487.2914700000001</v>
+      </c>
+      <c r="F6">
+        <v>6506.3597099999997</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>697.58051549999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="1">
         <v>0.74</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B7" s="2">
         <v>2059.52313</v>
       </c>
-      <c r="C3" s="4">
-        <v>3354.31341</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C7">
+        <v>3354.3134100000002</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.69</v>
       </c>
-      <c r="E3" s="5">
-        <v>2075.76364</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E7" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="F7">
         <v>3515.45111</v>
       </c>
-      <c r="G3" s="4">
-        <f>D3/(D3+A3)</f>
-        <v>0.482517482517482</v>
-      </c>
-      <c r="H3" s="4">
-        <f>C3/B3</f>
-        <v>1.62868450523301</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">A3+D3</f>
-        <v>1.43</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J11" si="1">A3/(A3+D3)</f>
-        <v>0.517482517482518</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="3">
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>535.47601380000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25">
+      <c r="A8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B8">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="C8">
+        <v>4080.8383100000001</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.69</v>
       </c>
-      <c r="B4" s="5">
-        <v>2075.76364</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3489.02098</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E8" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="F8">
+        <v>3489.0209799999998</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>697.58051549999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B9">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="C9">
+        <v>7489.3661400000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E9">
+        <v>3354.57681</v>
+      </c>
+      <c r="F9">
+        <v>6821.0871900000002</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>325.57369319999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25">
+      <c r="A10" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B10">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="C10">
+        <v>5794.7122900000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="F10">
+        <v>4129.35772</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>325.57369319999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="B11">
+        <v>3487.2914700000001</v>
+      </c>
+      <c r="C11">
+        <v>6506.3597099999997</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.67</v>
       </c>
-      <c r="E4" s="4">
-        <v>2113.88035</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4080.83831</v>
-      </c>
-      <c r="G4" s="4">
-        <f>D4/(D4+A4)</f>
-        <v>0.492647058823529</v>
-      </c>
-      <c r="H4" s="4">
-        <f>C4/B4</f>
-        <v>1.68083731344287</v>
-      </c>
-      <c r="I4">
+      <c r="E11">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="F11">
+        <v>4267.0884599999999</v>
+      </c>
+      <c r="G11" t="b">
         <f t="shared" si="0"/>
-        <v>1.36</v>
-      </c>
-      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.507352941176471</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="3">
+        <v>802.07703809999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25">
+      <c r="A15" s="1">
         <v>0.69</v>
       </c>
-      <c r="B5" s="5">
-        <v>2075.76364</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B15" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="C15">
         <v>3515.45111</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D15" s="1">
         <v>0.74</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E15" s="2">
         <v>2059.52313</v>
       </c>
-      <c r="F5" s="4">
-        <v>3354.31341</v>
-      </c>
-      <c r="G5" s="4">
-        <f>D5/(D5+A5)</f>
-        <v>0.517482517482518</v>
-      </c>
-      <c r="H5" s="4">
-        <f>C5/B5</f>
-        <v>1.69357003960239</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.43</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.482517482517482</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="3">
+      <c r="F15">
+        <v>3354.3134100000002</v>
+      </c>
+      <c r="G15" t="b">
+        <f>B15&lt;E15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>B15*(1-A15)</f>
+        <v>643.48672840000017</v>
+      </c>
+      <c r="I15">
+        <f>E15*(1-D15)</f>
+        <v>535.47601380000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25">
+      <c r="A16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="B16">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="C16">
+        <v>4080.8383100000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="F16">
+        <v>3489.0209799999998</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" ref="G16:G19" si="2">B16&lt;E16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="3">B16*(1-A16)</f>
+        <v>697.58051549999993</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I26" si="4">E16*(1-D16)</f>
+        <v>643.48672840000017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B17">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="C17">
+        <v>7489.3661400000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E17">
+        <v>3354.57681</v>
+      </c>
+      <c r="F17">
+        <v>6821.0871900000002</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>325.57369319999987</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>436.09498530000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25">
+      <c r="A18" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B18">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="C18">
+        <v>5794.7122900000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="F18">
+        <v>4129.35772</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>325.57369319999987</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>535.47601380000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
         <v>0.77</v>
       </c>
-      <c r="B6" s="4">
-        <v>3487.29147</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6506.35971</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B19">
+        <v>3487.2914700000001</v>
+      </c>
+      <c r="C19">
+        <v>6506.3597099999997</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.67</v>
       </c>
-      <c r="E6" s="4">
-        <v>2113.88035</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4267.08846</v>
-      </c>
-      <c r="G6" s="4">
-        <f>D6/(D6+A6)</f>
-        <v>0.465277777777778</v>
-      </c>
-      <c r="H6" s="4">
-        <f>C6/B6</f>
-        <v>1.86573441479499</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.534722222222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
+      <c r="E19">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="F19">
+        <v>4267.0884599999999</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>802.07703809999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>697.58051549999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14.25">
+      <c r="A22" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="C22">
+        <v>3489.0209799999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E22">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="F22">
+        <v>4080.8383100000001</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" ref="G22:G26" si="5">B22&lt;E22</f>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H26" si="6">B22*(1-A22)</f>
+        <v>643.48672840000017</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>697.58051549999993</v>
+      </c>
+      <c r="J22">
+        <f>B22-H22</f>
+        <v>1432.2769115999999</v>
+      </c>
+      <c r="K22">
+        <f>E22-I22</f>
+        <v>1416.2998345000001</v>
+      </c>
+      <c r="M22">
+        <f>C22-I22-H22</f>
+        <v>2147.9537360999998</v>
+      </c>
+      <c r="N22" s="3">
+        <f>F22-I22-H22</f>
+        <v>2739.7710661000001</v>
+      </c>
+      <c r="O22">
+        <f>N22-M22</f>
+        <v>591.81733000000031</v>
+      </c>
+      <c r="P22">
+        <f>1-O22/N22</f>
+        <v>0.78399022556200715</v>
+      </c>
+      <c r="Q22">
+        <f>M22-K22*P22</f>
+        <v>1037.5885093869113</v>
+      </c>
+      <c r="R22">
+        <f>M22-Q22</f>
+        <v>1110.3652267130885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B23">
+        <v>3354.57681</v>
+      </c>
+      <c r="C23">
+        <v>6821.0871900000002</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.91</v>
       </c>
-      <c r="B7" s="4">
-        <v>3617.48548</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6821.08719</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3354.57681</v>
-      </c>
-      <c r="F7" s="4">
-        <v>7489.36614</v>
-      </c>
-      <c r="G7" s="4">
-        <f>D7/(D7+A7)</f>
-        <v>0.48876404494382</v>
-      </c>
-      <c r="H7" s="4">
-        <f>C7/B7</f>
-        <v>1.88558799412237</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.51123595505618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
+      <c r="E23">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="F23">
+        <v>7489.3661400000001</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>436.09498530000002</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>325.57369319999987</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J26" si="7">B23-H23</f>
+        <v>2918.4818246999998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K26" si="8">E23-I23</f>
+        <v>3291.9117867999998</v>
+      </c>
+      <c r="M23">
+        <f>C23-I23-H23</f>
+        <v>6059.4185115</v>
+      </c>
+      <c r="N23" s="3">
+        <f>F23-I23-H23</f>
+        <v>6727.6974614999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O26" si="9">N23-M23</f>
+        <v>668.2789499999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P26" si="10">1-O23/N23</f>
+        <v>0.90066750863511613</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q26" si="11">M23-K23*P23</f>
+        <v>3094.5005238362705</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R26" si="12">M23-Q23</f>
+        <v>2964.9179876637295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14.25">
+      <c r="A24" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="C24">
+        <v>4129.35772</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E24">
+        <v>3617.4854799999998</v>
+      </c>
+      <c r="F24">
+        <v>5794.7122900000004</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>535.47601380000003</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>325.57369319999987</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>1524.0471161999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>3291.9117867999998</v>
+      </c>
+      <c r="M24">
+        <f>C24-I24-H24</f>
+        <v>3268.3080129999998</v>
+      </c>
+      <c r="N24" s="3">
+        <f>F24-I24-H24</f>
+        <v>4933.6625830000003</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1665.3545700000004</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>0.66245065567752048</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="11"/>
+        <v>1087.5788914017821</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="12"/>
+        <v>2180.7291215982177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1">
         <v>0.67</v>
       </c>
-      <c r="B8" s="4">
-        <v>2113.88035</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4080.83831</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B25">
+        <v>2113.8803499999999</v>
+      </c>
+      <c r="C25">
+        <v>4267.0884599999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E25">
+        <v>3487.2914700000001</v>
+      </c>
+      <c r="F25">
+        <v>6506.3597099999997</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>697.58051549999993</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>802.07703809999998</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>1416.2998345000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>2685.2144318999999</v>
+      </c>
+      <c r="M25">
+        <f>C25-I25-H25</f>
+        <v>2767.4309063999999</v>
+      </c>
+      <c r="N25" s="3">
+        <f>F25-I25-H25</f>
+        <v>5006.7021563999997</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>2239.2712499999998</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>0.55274526423794357</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="11"/>
+        <v>1283.191345703895</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="12"/>
+        <v>1484.2395606961049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14.25">
+      <c r="A26" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2059.52313</v>
+      </c>
+      <c r="C26">
+        <v>3354.3134100000002</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.69</v>
       </c>
-      <c r="E8" s="5">
-        <v>2075.76364</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3489.02098</v>
-      </c>
-      <c r="G8" s="4">
-        <f>D8/(D8+A8)</f>
-        <v>0.507352941176471</v>
-      </c>
-      <c r="H8" s="4">
-        <f>C8/B8</f>
-        <v>1.93049635472509</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.36</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.492647058823529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2059.52313</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4129.35772</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3617.48548</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5794.71229</v>
-      </c>
-      <c r="G9" s="4">
-        <f>D9/(D9+A9)</f>
-        <v>0.551515151515152</v>
-      </c>
-      <c r="H9" s="4">
-        <f>C9/B9</f>
-        <v>2.00500672211436</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.448484848484848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>0.67</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2113.88035</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4267.08846</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3487.29147</v>
-      </c>
-      <c r="F10" s="4">
-        <v>6506.35971</v>
-      </c>
-      <c r="G10" s="4">
-        <f>D10/(D10+A10)</f>
-        <v>0.534722222222222</v>
-      </c>
-      <c r="H10" s="4">
-        <f>C10/B10</f>
-        <v>2.01860453454709</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.465277777777778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3354.57681</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7489.36614</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3617.48548</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6821.08719</v>
-      </c>
-      <c r="G11" s="4">
-        <f>D11/(D11+A11)</f>
-        <v>0.51123595505618</v>
-      </c>
-      <c r="H11" s="4">
-        <f>C11/B11</f>
-        <v>2.23258150407353</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48876404494382</v>
+      <c r="E26" s="2">
+        <v>2075.7636400000001</v>
+      </c>
+      <c r="F26">
+        <v>3515.45111</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>535.47601380000003</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>643.48672840000017</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>1524.0471161999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>1432.2769115999999</v>
+      </c>
+      <c r="M26">
+        <f>C26-I26-H26</f>
+        <v>2175.3506677999999</v>
+      </c>
+      <c r="N26" s="3">
+        <f>F26-I26-H26</f>
+        <v>2336.4883677999997</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>161.13769999999977</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>0.93103423829508536</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
+        <v>841.85182438085667</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="12"/>
+        <v>1333.4988434191432</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H11">
-    <sortCondition ref="H2"/>
+  <sortState ref="P26:Q30">
+    <sortCondition ref="Q26"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3649,12 +3135,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="1">
         <v>0.69</v>
       </c>
       <c r="B2" s="2">
-        <v>2075.76364</v>
+        <v>2075.7636400000001</v>
       </c>
       <c r="C2">
         <v>3515.45111</v>
@@ -3666,30 +3152,30 @@
         <v>2059.52313</v>
       </c>
       <c r="F2">
-        <v>3354.31341</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:6">
+        <v>3354.3134100000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="1">
         <v>0.69</v>
       </c>
       <c r="B3" s="2">
-        <v>2075.76364</v>
+        <v>2075.7636400000001</v>
       </c>
       <c r="C3">
-        <v>3489.02098</v>
+        <v>3489.0209799999998</v>
       </c>
       <c r="D3" s="1">
         <v>0.67</v>
       </c>
       <c r="E3">
-        <v>2113.88035</v>
+        <v>2113.8803499999999</v>
       </c>
       <c r="F3">
-        <v>4080.83831</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
+        <v>4080.8383100000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>0.87</v>
       </c>
@@ -3697,19 +3183,19 @@
         <v>3354.57681</v>
       </c>
       <c r="C4">
-        <v>7489.36614</v>
+        <v>7489.3661400000001</v>
       </c>
       <c r="D4" s="1">
         <v>0.91</v>
       </c>
       <c r="E4">
-        <v>3617.48548</v>
+        <v>3617.4854799999998</v>
       </c>
       <c r="F4">
-        <v>6821.08719</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+        <v>6821.0871900000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="1">
         <v>0.74</v>
       </c>
@@ -3723,33 +3209,33 @@
         <v>0.91</v>
       </c>
       <c r="E5">
-        <v>3617.48548</v>
+        <v>3617.4854799999998</v>
       </c>
       <c r="F5">
-        <v>5794.71229</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
+        <v>5794.7122900000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>0.67</v>
       </c>
       <c r="B6">
-        <v>2113.88035</v>
+        <v>2113.8803499999999</v>
       </c>
       <c r="C6">
-        <v>4267.08846</v>
+        <v>4267.0884599999999</v>
       </c>
       <c r="D6" s="1">
         <v>0.77</v>
       </c>
       <c r="E6">
-        <v>3487.29147</v>
+        <v>3487.2914700000001</v>
       </c>
       <c r="F6">
-        <v>6506.35971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>6506.3597099999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="1">
         <v>0.74</v>
       </c>
@@ -3757,36 +3243,36 @@
         <v>2059.52313</v>
       </c>
       <c r="C7">
-        <v>3354.31341</v>
+        <v>3354.3134100000002</v>
       </c>
       <c r="D7" s="1">
         <v>0.69</v>
       </c>
       <c r="E7" s="2">
-        <v>2075.76364</v>
+        <v>2075.7636400000001</v>
       </c>
       <c r="F7">
         <v>3515.45111</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="1">
         <v>0.67</v>
       </c>
       <c r="B8">
-        <v>2113.88035</v>
+        <v>2113.8803499999999</v>
       </c>
       <c r="C8">
-        <v>4080.83831</v>
+        <v>4080.8383100000001</v>
       </c>
       <c r="D8" s="1">
         <v>0.69</v>
       </c>
       <c r="E8" s="2">
-        <v>2075.76364</v>
+        <v>2075.7636400000001</v>
       </c>
       <c r="F8">
-        <v>3489.02098</v>
+        <v>3489.0209799999998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3794,10 +3280,10 @@
         <v>0.91</v>
       </c>
       <c r="B9">
-        <v>3617.48548</v>
+        <v>3617.4854799999998</v>
       </c>
       <c r="C9">
-        <v>6821.08719</v>
+        <v>6821.0871900000002</v>
       </c>
       <c r="D9" s="1">
         <v>0.87</v>
@@ -3806,18 +3292,18 @@
         <v>3354.57681</v>
       </c>
       <c r="F9">
-        <v>7489.36614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>7489.3661400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="1">
         <v>0.91</v>
       </c>
       <c r="B10">
-        <v>3617.48548</v>
+        <v>3617.4854799999998</v>
       </c>
       <c r="C10">
-        <v>5794.71229</v>
+        <v>5794.7122900000004</v>
       </c>
       <c r="D10" s="1">
         <v>0.74</v>
@@ -3834,23 +3320,362 @@
         <v>0.77</v>
       </c>
       <c r="B11">
-        <v>3487.29147</v>
+        <v>3487.2914700000001</v>
       </c>
       <c r="C11">
-        <v>6506.35971</v>
+        <v>6506.3597099999997</v>
       </c>
       <c r="D11" s="1">
         <v>0.67</v>
       </c>
       <c r="E11">
-        <v>2113.88035</v>
+        <v>2113.8803499999999</v>
       </c>
       <c r="F11">
-        <v>4267.08846</v>
+        <v>4267.0884599999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D278D9-8B5B-4965-B841-E8C6E06CFD15}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C2">
+        <v>483</v>
+      </c>
+      <c r="D2">
+        <v>183500</v>
+      </c>
+      <c r="E2">
+        <v>183350</v>
+      </c>
+      <c r="F2">
+        <v>5571.27682</v>
+      </c>
+      <c r="G2">
+        <v>5592.3543200000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>617</v>
+      </c>
+      <c r="D3">
+        <v>113500</v>
+      </c>
+      <c r="E3">
+        <v>113450</v>
+      </c>
+      <c r="F3">
+        <v>3165.1992495059899</v>
+      </c>
+      <c r="G3">
+        <v>3174.5033800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C4">
+        <v>643</v>
+      </c>
+      <c r="D4" s="2">
+        <v>93421</v>
+      </c>
+      <c r="E4" s="2">
+        <v>93420</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1722.1623199999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1740.8901800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C5">
+        <v>645</v>
+      </c>
+      <c r="D5" s="2">
+        <v>76605</v>
+      </c>
+      <c r="E5" s="2">
+        <v>76606</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2084.7572700000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2095.7572700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C6">
+        <v>605</v>
+      </c>
+      <c r="D6" s="2">
+        <v>71137</v>
+      </c>
+      <c r="E6" s="2">
+        <v>71136</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1887.9342899999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1907.50811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>868</v>
+      </c>
+      <c r="D7" s="2">
+        <v>63024</v>
+      </c>
+      <c r="E7" s="2">
+        <v>63025</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1870.912</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1882.912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C8">
+        <v>931</v>
+      </c>
+      <c r="D8" s="2">
+        <v>55759</v>
+      </c>
+      <c r="E8" s="2">
+        <v>55760</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1865.00821</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1856.35916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9">
+        <v>192</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C9">
+        <v>875</v>
+      </c>
+      <c r="D9" s="2">
+        <v>49270</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49271</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2032.30773</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2053.2813500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10">
+        <v>224</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C10">
+        <v>1385</v>
+      </c>
+      <c r="D10" s="2">
+        <v>38416</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38417</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1940.67552</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1961.3627100000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11">
+        <v>240</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C11">
+        <v>1393</v>
+      </c>
+      <c r="D11" s="2">
+        <v>56879</v>
+      </c>
+      <c r="E11" s="2">
+        <v>56878</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3062.5341800000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3084.00839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C12">
+        <v>1521</v>
+      </c>
+      <c r="D12" s="2">
+        <v>67178</v>
+      </c>
+      <c r="E12" s="2">
+        <v>67177</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4030.90951</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4050.9671199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C13">
+        <v>2685</v>
+      </c>
+      <c r="D13" s="2">
+        <v>82061</v>
+      </c>
+      <c r="E13" s="2">
+        <v>82060</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8667.2583099999993</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8657.4860599999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C14">
+        <v>4981</v>
+      </c>
+      <c r="D14" s="2">
+        <v>69153</v>
+      </c>
+      <c r="E14" s="2">
+        <v>69154</v>
+      </c>
+      <c r="F14" s="2">
+        <v>13578.19541</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13599.309509999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>